--- a/htdocs/App/Controllers/Traspasos/IB0119BV.xlsx
+++ b/htdocs/App/Controllers/Traspasos/IB0119BV.xlsx
@@ -298,16 +298,16 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="hair">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <top style="hair">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -457,6 +457,51 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="166" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -498,56 +543,14 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="166" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,18 +990,18 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48" t="s">
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
     </row>
     <row r="3" spans="1:43" customHeight="1" ht="17.25">
       <c r="A3" s="14"/>
@@ -1020,14 +1023,14 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="53"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
     </row>
     <row r="4" spans="1:43" customHeight="1" ht="17.25">
       <c r="A4" s="14"/>
@@ -1039,18 +1042,18 @@
       <c r="G4" s="14"/>
       <c r="R4" s="15"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="54" t="s">
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="56"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="71"/>
     </row>
     <row r="5" spans="1:43" customHeight="1" ht="17.25">
       <c r="A5" s="14"/>
@@ -1062,14 +1065,14 @@
       <c r="G5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="59"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="74"/>
     </row>
     <row r="6" spans="1:43" customHeight="1" ht="17.25">
       <c r="A6" s="14"/>
@@ -1091,18 +1094,18 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="54" t="s">
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="56"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="71"/>
     </row>
     <row r="7" spans="1:43" customHeight="1" ht="17.25">
       <c r="A7" s="14"/>
@@ -1124,25 +1127,25 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
     </row>
     <row r="8" spans="1:43" customHeight="1" ht="19.9">
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="62" t="s">
+      <c r="T8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
       <c r="X8" s="60" t="s">
         <v>8</v>
       </c>
@@ -1156,18 +1159,18 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="62" t="s">
+      <c r="T9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="61" t="s">
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
     </row>
@@ -1265,10 +1268,10 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="64">
+      <c r="S13" s="55">
         <v>1050</v>
       </c>
-      <c r="T13" s="64"/>
+      <c r="T13" s="55"/>
       <c r="U13" s="45" t="s">
         <v>11</v>
       </c>
@@ -1294,18 +1297,18 @@
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -1339,13 +1342,13 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="63" t="s">
+      <c r="S15" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="36">
         <v>3</v>
@@ -1363,30 +1366,30 @@
         <v>17</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="73">
+      <c r="D16" s="56">
         <v>606120936</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="63" t="s">
+      <c r="S16" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
         <v>58</v>
@@ -1416,13 +1419,13 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="63" t="s">
+      <c r="S17" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="36" t="str">
         <f>S13*V13/100</f>
@@ -1439,30 +1442,30 @@
         <v>20</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="63" t="s">
+      <c r="S18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="36">
         <v>15</v>
@@ -1491,13 +1494,13 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="63" t="s">
+      <c r="S19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="36">
         <v>45</v>
@@ -1526,13 +1529,13 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="76" t="s">
+      <c r="S20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="14"/>
@@ -1546,28 +1549,28 @@
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="76" t="s">
+      <c r="S21" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="14"/>
@@ -1608,28 +1611,28 @@
         <v>17</v>
       </c>
       <c r="C23" s="42"/>
-      <c r="D23" s="73">
+      <c r="D23" s="56">
         <v>610</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="14"/>
@@ -1654,11 +1657,11 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="14"/>
@@ -1666,32 +1669,32 @@
     </row>
     <row r="25" spans="1:43" customHeight="1" ht="15.75">
       <c r="A25" s="31"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="72" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="14"/>
@@ -1717,11 +1720,11 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="14"/>
@@ -1747,11 +1750,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
       <c r="X27" s="36"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="14"/>
@@ -1760,11 +1763,11 @@
     </row>
     <row r="28" spans="1:43" customHeight="1" ht="15.75">
       <c r="R28" s="14"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
       <c r="X28" s="36"/>
       <c r="Y28" s="37"/>
       <c r="Z28" s="14"/>
@@ -1772,11 +1775,11 @@
     </row>
     <row r="29" spans="1:43" customHeight="1" ht="15.75">
       <c r="R29" s="14"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="37"/>
       <c r="Z29" s="14"/>
@@ -1784,11 +1787,11 @@
     </row>
     <row r="30" spans="1:43" customHeight="1" ht="15.75">
       <c r="R30" s="14"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="37"/>
       <c r="Z30" s="14"/>
@@ -1854,20 +1857,20 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="74" t="s">
+      <c r="S33" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="66" t="str">
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="47" t="str">
         <f>SUM(Y15:Y30)</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="68"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="49"/>
     </row>
     <row r="34" spans="1:43" customHeight="1" ht="15.75">
       <c r="A34" s="14"/>
@@ -1888,15 +1891,15 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="30"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="71"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="52"/>
     </row>
     <row r="35" spans="1:43" customHeight="1" ht="15.75">
       <c r="A35" s="14"/>
@@ -2113,6 +2116,26 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="X6:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="S25:W25"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="X33:AA34"/>
     <mergeCell ref="D25:O25"/>
@@ -2129,26 +2152,6 @@
     <mergeCell ref="S21:W21"/>
     <mergeCell ref="S20:W20"/>
     <mergeCell ref="S19:W19"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="X6:AA7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.35433070866142" right="0.15748031496063" top="0.2" bottom="0.19685039370079" header="0" footer="0"/>
